--- a/biology/Biochimie/Glucocorticoïde/Glucocorticoïde.xlsx
+++ b/biology/Biochimie/Glucocorticoïde/Glucocorticoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glucocorticoïdes sont des corticoïdes qui ont une action sur le métabolisme protidique et glucidique. Ils s'opposent aux minéralocorticoïdes. En pratique courante, le terme corticoïde, sans précision, désigne les glucocorticoïdes.
 Les glucocorticoïdes naturels sont la cortisone et le cortisol. Les glucocorticoïdes de synthèse sont soit à effets courts (la prednisone), soit à effets intermédiaires (paraméthasone), soit à effets prolongés (bétaméthasone). Les médicaments s'appellent anti-inflammatoires stéroïdiens quand ils sont employés à cet effet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les glucocorticoïdes naturels sont sécrétés par l'organisme humain à faibles doses et à un rythme circadien (70 % étant sécrétés entre 2 et 8 heures du matin[1]). La cortisone et le cortisol (ou hydrocortisone) — sont utilisés essentiellement dans l’hormonothérapie de substitution des insuffisances surrénales.L’hémisuccinate d’hydrocortisone a un effet très rapide et doit donc être réservé aux problèmes d’urgence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les glucocorticoïdes naturels sont sécrétés par l'organisme humain à faibles doses et à un rythme circadien (70 % étant sécrétés entre 2 et 8 heures du matin). La cortisone et le cortisol (ou hydrocortisone) — sont utilisés essentiellement dans l’hormonothérapie de substitution des insuffisances surrénales.L’hémisuccinate d’hydrocortisone a un effet très rapide et doit donc être réservé aux problèmes d’urgence.
 Les glucocorticoïdes de synthèse ont une activité majorée pour permettre une meilleure action anti-inflammatoire et leurs effets minéralocorticoïdes sont très réduits. Ils sont utilisés dans les autres indications thérapeutiques (anti-inflammatoires, immunosuppressives, anti-allergiques) et sont définis en :
 corticoïdes à effets courts (prednisone, prednisolone, méthylprednisolone) : de pouvoir anti-inflammatoire à 4-5 (mesuré par référence à celui du cortisol coté à 1) ;
 corticoïdes à effets intermédiaires (triamcinolone, paraméthasone) : de pouvoir anti-inflammatoire à 5-10 ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les glucocorticoïdes de synthèse sont des anti-inflammatoires connus depuis les années 1950, au cours desquelles ils ont pour la première fois été utilisés avec succès dans les maladies inflammatoires, et en particulier les affections rhumatismales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glucocorticoïdes de synthèse sont des anti-inflammatoires connus depuis les années 1950, au cours desquelles ils ont pour la première fois été utilisés avec succès dans les maladies inflammatoires, et en particulier les affections rhumatismales.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La structure des glucocorticoïdes est basée sur le noyau prégnane, sur lequel s'ajoutent des fonctions indispensables à l'activité biologique et des fonctions modulant cette activité.
 Fonctions nécessaires à l'activité glucocorticoïde :
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Action des glucocorticoïdes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Augmentation du métabolisme glucidique, protéique et lipidique.
 Anti-inflammatoire.
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glucocorticoïdes se fixent aux récepteurs des glucocorticoïdes (GR) du cytoplasme de la cellule. Ce type de récepteur est activé par une fixation du type ligand. Après qu'une hormone se fixe à son récepteur correspondant, le complexe récepteur-ligand formé pénètre  dans le noyau cellulaire où il se fixe à de nombreux éléments de réponse aux glucocorticoïdes dans la région du promoteur des gènes-cibles. Le récepteur, ainsi fixé à la molécule d'ADN interagit avec les facteurs de transcription basiques, provoquant une augmentation de l'expression génique de gènes-cibles spécifiques. Ce processus est appelé « transactivation ». Il conditionne la plupart des effets secondaires métaboliques et cardiovasculaires des glucocorticoïdes.
 Le mécanisme opposé est appelé « transrépression ». Le récepteur hormonal activé interagit avec des facteurs de transcription spécifiques et prévient la transcription des gènes-cibles. Les glucocorticoïdes sont capables d'empêcher la transcription de tous les gènes immuns, incluant celui codant IL-2.
@@ -667,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,6 +708,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +717,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -711,9 +735,11 @@
           <t>Indications des glucocorticoïdes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Les glucocorticoïdes de synthèse sont utilisés pour traiter de très nombreuses maladies allergiques, immunologiques ou cancéreuses[3]. Néanmoins, la grande majorité des patients recevant des glucocorticoïdes sont traités pour des maladies pulmonaires ou rhumatologiques[3].  
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les glucocorticoïdes de synthèse sont utilisés pour traiter de très nombreuses maladies allergiques, immunologiques ou cancéreuses. Néanmoins, la grande majorité des patients recevant des glucocorticoïdes sont traités pour des maladies pulmonaires ou rhumatologiques.  
 Maladies pulmonaires :
 asthme ;
 bronchopneumopathie chronique obstructive.
@@ -759,7 +785,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -777,9 +803,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Les effets secondaires d'un traitement par glucocorticoïdes se rencontrent surtout en cas de traitement prolongé mais peuvent également, pour certains d'entre eux, apparaitre dès les tout premiers jours du traitement[4]. Certaines précautions peuvent permettre de les éviter ou d'en limiter leur risque[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les effets secondaires d'un traitement par glucocorticoïdes se rencontrent surtout en cas de traitement prolongé mais peuvent également, pour certains d'entre eux, apparaitre dès les tout premiers jours du traitement. Certaines précautions peuvent permettre de les éviter ou d'en limiter leur risque.
 Les effets secondaires principaux sont :
 troubles métaboliques : aspect physique cushingoïde, prise de poids, répartition anormale des graisses, rétention hydrosodée, hypokaliémie, alcalose métabolique, ostéoporose (par augmentation du métabolisme protéique dans les os), fractures, retard de croissance chez l'enfant et l'adolescent, retard de cicatrisation, ostéonécrose, protéolyse, apparition de vergetures, hypertension artérielle, dyslipidémie ;
 troubles endocriniens : diabète, dérégulation de la synthèse naturelle de glucocorticoïdes à la fin du traitement, troubles du cycle menstruel (règles irrégulières), apparition (ou aggravation) d'une acné, pilosité excessive ou hypertrichose, fragilisation cutanée, ecchymoses ;
@@ -795,7 +823,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -813,22 +841,11 @@
           <t>Précautions d'emploi</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les précautions d'emploi sont donc systématiques dans les traitements longs, à dose élevée. Dans ce cas, on prescrit les mesures suivantes :
-Régime alimentaire et supplémentations
-Apports de calcium (prévention des fractures).
-Apports de vitamine D (même remarque).
-Apports de potassium parfois.
-Le régime alimentaire à suivre n'est pas très bien connu[6].
-Bilan avant de commencer le traitement
-Par ailleurs, il convient de toujours rechercher un ulcère (et de le traiter le cas échéant), des troubles psychiatriques, une ménopause, une hypertension (la rétention d'eau et de sodium liée aux glucocorticoïdes augmente le volume sanguin, et donc la tension), une infection virale ou bactérienne.
-Pendant le traitement
-Surveiller le poids, la pression artérielle, l'état cutané, la glycémie, la tolérance et la bonne prise du traitement.
-Les glucocorticoïdes, pour mimer la libération naturelle de leur équivalent non-synthétique, doivent la plupart du temps être pris en une seule prise, le matin.
-En cas de stress (infection, opération chirurgicale, traumatisme) : une augmentation des doses est indispensable (physiologiquement, ces états introduisent une augmentation des hormones surrénaliennes).
-Fin du traitement
-Afin d'éviter de perturber la synthèse naturelle de glucocorticoïdes par la glande surrénale, il faut toujours arrêter le traitement très progressivement si ce dernier a été prolongé : plusieurs paliers de 8 à 15 jours, en surveillant la fonction surrénalienne par des tests sanguins réguliers.
 </t>
         </is>
       </c>
@@ -839,7 +856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glucocortico%C3%AFde</t>
+          <t>Glucocorticoïde</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -854,24 +871,281 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Précautions d'emploi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Régime alimentaire et supplémentations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Apports de calcium (prévention des fractures).
+Apports de vitamine D (même remarque).
+Apports de potassium parfois.
+Le régime alimentaire à suivre n'est pas très bien connu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Précautions d'emploi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bilan avant de commencer le traitement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ailleurs, il convient de toujours rechercher un ulcère (et de le traiter le cas échéant), des troubles psychiatriques, une ménopause, une hypertension (la rétention d'eau et de sodium liée aux glucocorticoïdes augmente le volume sanguin, et donc la tension), une infection virale ou bactérienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Précautions d'emploi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pendant le traitement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Surveiller le poids, la pression artérielle, l'état cutané, la glycémie, la tolérance et la bonne prise du traitement.
+Les glucocorticoïdes, pour mimer la libération naturelle de leur équivalent non-synthétique, doivent la plupart du temps être pris en une seule prise, le matin.
+En cas de stress (infection, opération chirurgicale, traumatisme) : une augmentation des doses est indispensable (physiologiquement, ces états introduisent une augmentation des hormones surrénaliennes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Précautions d'emploi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fin du traitement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin d'éviter de perturber la synthèse naturelle de glucocorticoïdes par la glande surrénale, il faut toujours arrêter le traitement très progressivement si ce dernier a été prolongé : plusieurs paliers de 8 à 15 jours, en surveillant la fonction surrénalienne par des tests sanguins réguliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Prescription d'une corticothérapie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compte tenu de la diversité des indications de traitement à base de corticoïdes (corticothérapie), de l'importance d'adapter celle-ci à la réponse clinique et aux effets secondaires rencontrés, il n'existe pas de schéma standard de prescription. Le protocole suivant permet de fixer quelques règles[7] :
-Corticothérapie en cure courte
-Sur une durée brève, de 10 à 15 jours suivant les références, il est possible d'instaurer et d'arrêter une corticothérapie avec un risque modéré d'effets secondaires. Les règles suivantes doivent néanmoins être respectées :
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compte tenu de la diversité des indications de traitement à base de corticoïdes (corticothérapie), de l'importance d'adapter celle-ci à la réponse clinique et aux effets secondaires rencontrés, il n'existe pas de schéma standard de prescription. Le protocole suivant permet de fixer quelques règles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Prescription d'une corticothérapie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Corticothérapie en cure courte</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sur une durée brève, de 10 à 15 jours suivant les références, il est possible d'instaurer et d'arrêter une corticothérapie avec un risque modéré d'effets secondaires. Les règles suivantes doivent néanmoins être respectées :
 à la mise en route, examen clinique et interrogatoire, mais pas de bilan biologique ;
 pas de traitement adjuvant ;
 durée de traitement de 10 à 15 jours maximum ;
 glucocorticoïdes de demi vie brève : prednisone, prednisolone ou méthylprednisolone ;
 en une prise unique le matin ;
-0,5  à   1 mg·kg-1 du premier au dernier jour.
-Corticothérapie prolongée, phase de décroissance
-Il est plus que conseillé en cas de corticothérapie sur plusieurs années, de diminuer très progressivement : 1 mg tous les deux mois, puis stabilisation à 5 mg durant 3 ou 4 mois, ensuite à nouveau 1 mg tous les deux mois jusqu'à arrêt total.
-Corticothérapie prolongée, phase de sevrage
-Risques du sevrage :
+0,5  à   1 mg·kg-1 du premier au dernier jour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Prescription d'une corticothérapie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Corticothérapie prolongée, phase de décroissance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est plus que conseillé en cas de corticothérapie sur plusieurs années, de diminuer très progressivement : 1 mg tous les deux mois, puis stabilisation à 5 mg durant 3 ou 4 mois, ensuite à nouveau 1 mg tous les deux mois jusqu'à arrêt total.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Prescription d'une corticothérapie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Corticothérapie prolongée, phase de sevrage</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Risques du sevrage :
 une insuffisance surrénalienne ;
 une reprise de la maladie sous-jacente.
 N.B. : Une cure de moins de deux semaines de cortisone par voie générale ne nécessite pas de sevrage progressif.
@@ -885,31 +1159,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Il n'existe aucune contre-indication formelle à une corticothérapie brève et vitale. Dans les autres cas, où les glucocorticoïdes peuvent être remplacés par d'autres médicaments, on évitera de les prescrire dans les circonstances suivantes :
 grossesse, allaitement ;
@@ -923,31 +1199,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Mécanisme de résistance</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">De multiples facteurs contribuant à la résistance aux glucocorticoïdes ont été identifiés. Ils font toujours l’objet d’études.
 Une mutation dans le domaine C-terminal du GR le rendrait déficient.
@@ -955,58 +1233,232 @@
 Le complexe GR et protéines chaperonnes peut être altéré ainsi que les étapes de translocation vers le noyau. En effet, une expression anormale de HSP90 et 70 a été retrouvée dans des cellules leucémiques.
 Dans ces cellules, les glucocorticoïdes permettent la production, via les mitochondries, d’espèces oxygénées réactives (ROS) intervenant dans l’apoptose cellulaire induite. Une anomalie de cette production par les mitochondries expliquerait la résistance de cellules de lymphome aux glucocorticoïdes. Les cellules malignes deviennent alors incapables d’initier le programme d’apoptose en réponse à l’agoniste du GR : la résistance est alors corrélée positivement à un mauvais pronostic.
 Dans l'asthme résistant, il y aurait entre autres, une réduction de la fixation des glucocorticoïdes aux GR, une réduction de l’expression des GR, une inhibition de l’expression de l’histone désacétylase, une déficience de l’activité corépressive.
-Au cours d’infections virales et bactériennes, une résistance aux glucocorticoïdes peut se développer, le GR apparaissant comme une cible pour une grande diversité de toxines[8].
+Au cours d’infections virales et bactériennes, une résistance aux glucocorticoïdes peut se développer, le GR apparaissant comme une cible pour une grande diversité de toxines.
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Exemples de médicaments</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Béclométasone
-Bétaméthasone
-Stéréoisomère de la dexaméthasone 
-En France : Célestène, Célestamine
-Dexaméthasone
-Stéréoisomère de la bétaméthasone
-en France : Aphilan, Arthrisone, Bacicoline, Calmicort, Colofoam, Cortapaisyl, Cortexan Framycetine, Dermaspraid, Dermofenac, Efficort et Hydracort, Locoid, Madecassol, Mitocortyl, Propylor, Septomixine
-Prednisolone
-En Belgique : Pred Forte (acétate : collyre), Ultracortenol (acétate : collyre ; pivalate : onguent ophtalmique).
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bétaméthasone</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Stéréoisomère de la dexaméthasone 
+En France : Célestène, Célestamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dexaméthasone</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stéréoisomère de la bétaméthasone
+en France : Aphilan, Arthrisone, Bacicoline, Calmicort, Colofoam, Cortapaisyl, Cortexan Framycetine, Dermaspraid, Dermofenac, Efficort et Hydracort, Locoid, Madecassol, Mitocortyl, Propylor, Septomixine</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Prednisolone</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>En Belgique : Pred Forte (acétate : collyre), Ultracortenol (acétate : collyre ; pivalate : onguent ophtalmique).
 En France : Cortisal, Cortisomol, Deliproct, Dérinox, Déturgylone, Hydrocortancyl et Solupred.
-En Suisse : Hexacortone, Pred Forte/Pred Mild, Prednisolone Galepharm, Prednisolone Streuli, Prednisolone-P Streuli, Spiricort, Succinate de Prednisolone Streuli, Ultracortène H hydrosoluble, Ultracortenol.
-Prednisone
-En Belgique : (aucune spécialité).
+En Suisse : Hexacortone, Pred Forte/Pred Mild, Prednisolone Galepharm, Prednisolone Streuli, Prednisolone-P Streuli, Spiricort, Succinate de Prednisolone Streuli, Ultracortène H hydrosoluble, Ultracortenol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>En Belgique : (aucune spécialité).
 En France : Cortancyl.
-En Suisse : Prednisone Galepharm, Prednisone Streuli.
-Tixocortol
-En Belgique : (aucune spécialité).
+En Suisse : Prednisone Galepharm, Prednisone Streuli.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tixocortol</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>En Belgique : (aucune spécialité).
 En France : Pivalone, Oropivalone (commercialisation arrêtée) et Thiovalone.
-En Suisse : Pivalone.
-Triamcinolone et triamcinolone acétonide
-En Belgique : Albicort, Delphi, Kenacort A.
+En Suisse : Pivalone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Glucocorticoïde</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucocortico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exemples de médicaments</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Triamcinolone et triamcinolone acétonide</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>En Belgique : Albicort, Delphi, Kenacort A.
 En France : Cidermex, Corticotulle Lumière, Kenacort, Kenalcol, Localone, Nasacort, Pevisone.
 En Suisse : Kenacort, Nasacort, Triamcort Dépôt.</t>
         </is>
